--- a/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Punjab Kings/Batting/M Shahrukh Khan.xlsx
+++ b/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Punjab Kings/Batting/M Shahrukh Khan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="M Shahrukh Khan" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,90 +397,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>matchNo</v>
+      </c>
+      <c r="B1" t="str">
         <v>teamName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>batterName</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>states</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>runs</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>balls</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>fours</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>sixes</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>sr</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>opponentTeamName</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>venue</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>date</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>result</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Punjab Kings</v>
+        <v>53rd</v>
       </c>
       <c r="B2" t="str">
-        <v>M Shahrukh Khan</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="C2" t="str">
-        <v>b Chahal</v>
+        <v>M Shahrukh Khan</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>c Bravo b Chahar</v>
       </c>
       <c r="E2" t="str">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2" t="str">
         <v>0</v>
       </c>
       <c r="H2" t="str">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <v>80.00</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="L2" t="str">
+        <v>October 07</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Punjab Kings won by 6 wickets (with 42 balls remaining)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>45th</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C3" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>22</v>
+      </c>
+      <c r="F3" t="str">
+        <v>9</v>
+      </c>
+      <c r="G3" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <v>244.44</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="L3" t="str">
+        <v>October 01</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Punjab Kings won by 5 wickets (with 3 balls remaining)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>8th</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C4" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D4" t="str">
+        <v>c Jadeja b Curran</v>
+      </c>
+      <c r="E4" t="str">
+        <v>47</v>
+      </c>
+      <c r="F4" t="str">
+        <v>36</v>
+      </c>
+      <c r="G4" t="str">
+        <v>4</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <v>130.55</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Wankhede</v>
+      </c>
+      <c r="L4" t="str">
+        <v>April 16</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Super Kings won by 6 wickets (with 26 balls remaining)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>11th</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C5" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>15</v>
+      </c>
+      <c r="F5" t="str">
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>300.00</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Wankhede</v>
+      </c>
+      <c r="L5" t="str">
+        <v>April 18</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Capitals won by 6 wickets (with 10 balls remaining)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>48th</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C6" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D6" t="str">
+        <v>run out (Patel)</v>
+      </c>
+      <c r="E6" t="str">
+        <v>16</v>
+      </c>
+      <c r="F6" t="str">
+        <v>11</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>145.45</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="L6" t="str">
+        <v>October 03</v>
+      </c>
+      <c r="M6" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>21st</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C7" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D7" t="str">
+        <v>c Morgan b Prasidh Krishna</v>
+      </c>
+      <c r="E7" t="str">
+        <v>13</v>
+      </c>
+      <c r="F7" t="str">
+        <v>14</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>92.85</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Ahmedabad</v>
+      </c>
+      <c r="L7" t="str">
+        <v>April 26</v>
+      </c>
+      <c r="M7" t="str">
+        <v>KKR won by 5 wickets (with 20 balls remaining)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>26th</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C8" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D8" t="str">
+        <v>b Chahal</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
         <v>0.00</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J8" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K8" t="str">
         <v>Ahmedabad</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L8" t="str">
         <v>April 30</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M8" t="str">
         <v>Punjab Kings won by 34 runs</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>29th</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C9" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D9" t="str">
+        <v>c Hetmyer b Avesh Khan</v>
+      </c>
+      <c r="E9" t="str">
+        <v>4</v>
+      </c>
+      <c r="F9" t="str">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9" t="str">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <v>80.00</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Ahmedabad</v>
+      </c>
+      <c r="L9" t="str">
+        <v>May 02</v>
+      </c>
+      <c r="M9" t="str">
+        <v>Capitals won by 7 wickets (with 14 balls remaining)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>14th</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C10" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D10" t="str">
+        <v>c Abhishek Sharma b Ahmed</v>
+      </c>
+      <c r="E10" t="str">
+        <v>22</v>
+      </c>
+      <c r="F10" t="str">
+        <v>17</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2</v>
+      </c>
+      <c r="I10" t="str">
+        <v>129.41</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="L10" t="str">
+        <v>April 21</v>
+      </c>
+      <c r="M10" t="str">
+        <v>Sunrisers won by 9 wickets (with 8 balls remaining)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>4th</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="C11" t="str">
+        <v>M Shahrukh Khan</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <v>1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <v>150.00</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Wankhede</v>
+      </c>
+      <c r="L11" t="str">
+        <v>April 12</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Punjab Kings won by 4 runs</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M11"/>
   </ignoredErrors>
 </worksheet>
 </file>